--- a/RQ2_Taxonomy/evaluation/post_sentences_selection.xlsx
+++ b/RQ2_Taxonomy/evaluation/post_sentences_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Master Computer Science\Thesis\GHA_taxonomy\RQ2_Taxonomy\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43FD9CF-22E8-409C-B65E-758B90BBA4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30768BE3-28E1-48F1-9853-6FCFE416C803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="679">
   <si>
     <t>sample_id</t>
   </si>
@@ -1021,27 +1021,6 @@
     <t>https://stackoverflow.com/q/76168022</t>
   </si>
   <si>
-    <t>Could you please provide an example for me to refer?</t>
-  </si>
-  <si>
-    <t>2023-05-16 12:18:03</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;I want to deploy a k8s job in k8s cluster with GitHub Actions.&amp;#xA;But there are some env variables in &lt;code&gt;job.yaml&lt;/code&gt;:&lt;/p&gt;&amp;#xA;&lt;pre class="lang-yaml prettyprint-override"&gt;&lt;code&gt;apiVersion: batch/v1&amp;#xA;kind: Job&amp;#xA;metadata:&amp;#xA;  name: pi01&amp;#xA;spec:&amp;#xA;  template:&amp;#xA;    spec:&amp;#xA;      containers:&amp;#xA;      - name: pi01&amp;#xA;        image: xx:version&amp;#xA;        command: [&amp;quot;node&amp;quot;, &amp;quot;schedule/schedule.js&amp;quot;]&amp;#xA;        env:&amp;#xA;          - name: DB_HOST&amp;#xA;            value: {{ ${{ secrets.DB_HOST }} }}&amp;#xA;          - name: DB_PORT&amp;#xA;            value: {{ ${{ secrets.DB_PORT }} }}&amp;#xA;          - name: DB_USER&amp;#xA;            value: {{ ${{ secrets.DB_USER }} }}&amp;#xA;          - name: DB_PASSWORD&amp;#xA;            value: {{ ${{ secrets.DB_PASSWORD }} }}&amp;#xA;&lt;/code&gt;&lt;/pre&gt;&amp;#xA;&lt;p&gt;because those env variables are sensitive, I save them as secrets.&lt;/p&gt;&amp;#xA;&lt;p&gt;In GitHub Actions workflow, I don't know how to put secrets into env variables of &lt;code&gt;job.yaml&lt;/code&gt;.&lt;/p&gt;&amp;#xA;&lt;p&gt;With this command, I don't know which option I should use:&lt;/p&gt;&amp;#xA;&lt;pre&gt;&lt;code&gt;kubectl apply -f job.yaml [Options]&amp;#xA;&lt;/code&gt;&lt;/pre&gt;&amp;#xA;&lt;p&gt;Could you please provide an example for me to refer?&lt;/p&gt;&amp;#xA;&lt;p&gt;In workflow, I used this script but I don't know how to input &lt;code&gt;${{ secrets.DB_PASSWORD }}&lt;/code&gt; into YAML file:&lt;/p&gt;&amp;#xA;&lt;pre class="lang-yaml prettyprint-override"&gt;&lt;code&gt;- name: Deploy app to AKS&amp;#xA;  run: |&amp;#xA;    kubectl apply -f job.yaml &amp;#xA;&lt;/code&gt;&lt;/pre&gt;&amp;#xA;</t>
-  </si>
-  <si>
-    <t>2023-05-16 17:19:38</t>
-  </si>
-  <si>
-    <t>How to use GitHub Actions secrets in k8s Job env?</t>
-  </si>
-  <si>
-    <t>['kubernetes', 'github-actions']</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/q/76262960</t>
-  </si>
-  <si>
     <t>Can anyone provide clarity on the meaning of the -CODE- switch and perhaps a link to some documentation on it?</t>
   </si>
   <si>
@@ -2060,6 +2039,24 @@
   </si>
   <si>
     <t>So, there is a really small github actions example on -LINK-, but it is not really helpful for us/me.</t>
+  </si>
+  <si>
+    <t>Where can I refer to the list of possible -CODE- names?</t>
+  </si>
+  <si>
+    <t>2020-07-07 22:18:06</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;I am new to GitHub Actions, and I am trying to set up a build matrix that installs different system requirements on different platforms. From the example at &lt;a href="https://github.com/r-lib/actions/blob/master/examples/check-standard.yaml" rel="nofollow noreferrer"&gt;https://github.com/r-lib/actions/blob/master/examples/check-standard.yaml&lt;/a&gt;, I figured out how to write steps that only run on Windows:&lt;/p&gt;&amp;#xA;&lt;pre&gt;&lt;code&gt;      - name: step name&amp;#xA;        if: runner.os == 'Windows'&amp;#xA;&lt;/code&gt;&lt;/pre&gt;&amp;#xA;&lt;p&gt;or Linux&lt;/p&gt;&amp;#xA;&lt;pre&gt;&lt;code&gt;      - name: Install system dependencies&amp;#xA;        if: runner.os == 'Linux'&amp;#xA;&lt;/code&gt;&lt;/pre&gt;&amp;#xA;&lt;p&gt;But if I try &lt;code&gt;if: runner.os == 'Mac'&lt;/code&gt;, my step gets skipped on Mac OS. So my questions are&lt;/p&gt;&amp;#xA;&lt;ol&gt;&amp;#xA;&lt;li&gt;What &lt;code&gt;runner.os&lt;/code&gt; name do I use for Mac OS, and&lt;/li&gt;&amp;#xA;&lt;li&gt;Where can I refer to the list of possible &lt;code&gt;runner.os&lt;/code&gt; names?&lt;/li&gt;&amp;#xA;&lt;/ol&gt;&amp;#xA;</t>
+  </si>
+  <si>
+    <t>2020-07-07 22:39:38</t>
+  </si>
+  <si>
+    <t>Mac-specific steps in a GitHub Actions build matrix</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/q/62784756</t>
   </si>
 </sst>
 </file>
@@ -2425,10 +2422,13 @@
   <dimension ref="A1:BA101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -9016,19 +9016,19 @@
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>2642</v>
+        <v>395</v>
       </c>
       <c r="B44">
-        <v>280</v>
+        <v>47</v>
       </c>
       <c r="C44">
-        <v>76262960</v>
+        <v>62784756</v>
       </c>
       <c r="D44" t="s">
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>333</v>
+        <v>673</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -9100,49 +9100,43 @@
         <v>1</v>
       </c>
       <c r="AC44">
-        <v>76263041</v>
+        <v>62784946</v>
       </c>
       <c r="AE44" t="s">
-        <v>334</v>
+        <v>674</v>
       </c>
       <c r="AF44">
         <v>1</v>
       </c>
       <c r="AG44">
-        <v>291</v>
+        <v>1047</v>
       </c>
       <c r="AH44" t="s">
-        <v>335</v>
+        <v>675</v>
       </c>
       <c r="AI44">
-        <v>20772928</v>
-      </c>
-      <c r="AJ44">
-        <v>7670262</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>336</v>
+        <v>3704549</v>
       </c>
       <c r="AL44" t="s">
-        <v>336</v>
+        <v>676</v>
       </c>
       <c r="AM44" t="s">
-        <v>337</v>
+        <v>677</v>
       </c>
       <c r="AN44" t="s">
-        <v>338</v>
+        <v>116</v>
       </c>
       <c r="AO44">
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" t="s">
         <v>59</v>
       </c>
       <c r="AR44" t="s">
-        <v>339</v>
+        <v>678</v>
       </c>
       <c r="AS44">
         <v>1</v>
@@ -9186,7 +9180,7 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -9261,7 +9255,7 @@
         <v>64727984</v>
       </c>
       <c r="AE45" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AF45">
         <v>3</v>
@@ -9270,7 +9264,7 @@
         <v>5323</v>
       </c>
       <c r="AH45" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AI45">
         <v>1106996</v>
@@ -9279,16 +9273,16 @@
         <v>1106996</v>
       </c>
       <c r="AK45" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AL45" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AN45" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AO45">
         <v>1</v>
@@ -9300,7 +9294,7 @@
         <v>59</v>
       </c>
       <c r="AR45" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AS45">
         <v>1</v>
@@ -9344,7 +9338,7 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -9416,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="AE46" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AF46">
         <v>-1</v>
@@ -9425,19 +9419,19 @@
         <v>1159</v>
       </c>
       <c r="AH46" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AI46">
         <v>4062803</v>
       </c>
       <c r="AL46" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AM46" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AN46" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AO46">
         <v>1</v>
@@ -9449,7 +9443,7 @@
         <v>59</v>
       </c>
       <c r="AR46" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AS46">
         <v>1</v>
@@ -9493,7 +9487,7 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -9568,7 +9562,7 @@
         <v>69397197</v>
       </c>
       <c r="AE47" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AF47">
         <v>7</v>
@@ -9577,19 +9571,19 @@
         <v>3065</v>
       </c>
       <c r="AH47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AI47">
         <v>630517</v>
       </c>
       <c r="AL47" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AM47" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AN47" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AO47">
         <v>3</v>
@@ -9601,7 +9595,7 @@
         <v>59</v>
       </c>
       <c r="AR47" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AS47">
         <v>1</v>
@@ -9645,7 +9639,7 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -9717,7 +9711,7 @@
         <v>1</v>
       </c>
       <c r="AE48" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AF48">
         <v>2</v>
@@ -9726,7 +9720,7 @@
         <v>700</v>
       </c>
       <c r="AH48" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AI48">
         <v>3040446</v>
@@ -9735,16 +9729,16 @@
         <v>1445366</v>
       </c>
       <c r="AK48" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AL48" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AN48" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AO48">
         <v>1</v>
@@ -9756,7 +9750,7 @@
         <v>59</v>
       </c>
       <c r="AR48" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AS48">
         <v>1</v>
@@ -9800,7 +9794,7 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -9872,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="AE49" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -9881,19 +9875,19 @@
         <v>352</v>
       </c>
       <c r="AH49" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AI49">
         <v>11143113</v>
       </c>
       <c r="AL49" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AM49" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AO49">
         <v>1</v>
@@ -9905,7 +9899,7 @@
         <v>59</v>
       </c>
       <c r="AR49" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AS49">
         <v>1</v>
@@ -9949,7 +9943,7 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -10021,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="AE50" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -10030,19 +10024,19 @@
         <v>352</v>
       </c>
       <c r="AH50" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AI50">
         <v>11143113</v>
       </c>
       <c r="AL50" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AM50" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AN50" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AO50">
         <v>1</v>
@@ -10054,7 +10048,7 @@
         <v>59</v>
       </c>
       <c r="AR50" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AS50">
         <v>1</v>
@@ -10247,7 +10241,7 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -10319,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="AE52" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -10328,7 +10322,7 @@
         <v>457</v>
       </c>
       <c r="AH52" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AI52">
         <v>20997490</v>
@@ -10337,16 +10331,16 @@
         <v>367456</v>
       </c>
       <c r="AK52" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AL52" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AM52" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AN52" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AO52">
         <v>1</v>
@@ -10358,7 +10352,7 @@
         <v>59</v>
       </c>
       <c r="AR52" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AS52">
         <v>1</v>
@@ -10402,7 +10396,7 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -10477,7 +10471,7 @@
         <v>74052579</v>
       </c>
       <c r="AE53" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AF53">
         <v>6</v>
@@ -10486,7 +10480,7 @@
         <v>4195</v>
       </c>
       <c r="AH53" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AI53">
         <v>2704566</v>
@@ -10495,16 +10489,16 @@
         <v>1233251</v>
       </c>
       <c r="AK53" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AL53" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AM53" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="AN53" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AO53">
         <v>1</v>
@@ -10516,7 +10510,7 @@
         <v>59</v>
       </c>
       <c r="AR53" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AS53">
         <v>1</v>
@@ -10560,7 +10554,7 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -10635,7 +10629,7 @@
         <v>76573716</v>
       </c>
       <c r="AE54" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -10644,19 +10638,19 @@
         <v>222</v>
       </c>
       <c r="AH54" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AI54">
         <v>9698583</v>
       </c>
       <c r="AL54" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM54" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AN54" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AO54">
         <v>1</v>
@@ -10668,7 +10662,7 @@
         <v>59</v>
       </c>
       <c r="AR54" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AS54">
         <v>1</v>
@@ -10712,7 +10706,7 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -10784,7 +10778,7 @@
         <v>1</v>
       </c>
       <c r="AE55" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AF55">
         <v>5</v>
@@ -10793,7 +10787,7 @@
         <v>359</v>
       </c>
       <c r="AH55" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AI55">
         <v>7621784</v>
@@ -10802,16 +10796,16 @@
         <v>7621784</v>
       </c>
       <c r="AK55" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AN55" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AO55">
         <v>2</v>
@@ -10823,7 +10817,7 @@
         <v>59</v>
       </c>
       <c r="AR55" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AS55">
         <v>1</v>
@@ -10867,7 +10861,7 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -10939,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="AE56" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -10948,19 +10942,19 @@
         <v>2731</v>
       </c>
       <c r="AH56" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AI56">
         <v>10355068</v>
       </c>
       <c r="AL56" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AM56" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AN56" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AO56">
         <v>1</v>
@@ -10972,7 +10966,7 @@
         <v>59</v>
       </c>
       <c r="AR56" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AS56">
         <v>1</v>
@@ -11016,7 +11010,7 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -11088,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="AE57" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AF57">
         <v>7</v>
@@ -11097,7 +11091,7 @@
         <v>8812</v>
       </c>
       <c r="AH57" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AI57">
         <v>16874451</v>
@@ -11106,13 +11100,13 @@
         <v>1256452</v>
       </c>
       <c r="AK57" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AL57" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AM57" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AN57" t="s">
         <v>66</v>
@@ -11127,7 +11121,7 @@
         <v>59</v>
       </c>
       <c r="AR57" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AS57">
         <v>1</v>
@@ -11171,7 +11165,7 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -11243,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="AE58" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -11252,19 +11246,19 @@
         <v>150</v>
       </c>
       <c r="AH58" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AI58">
         <v>11143113</v>
       </c>
       <c r="AL58" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AM58" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AN58" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -11276,7 +11270,7 @@
         <v>59</v>
       </c>
       <c r="AR58" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AS58">
         <v>1</v>
@@ -11320,7 +11314,7 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -11392,7 +11386,7 @@
         <v>1</v>
       </c>
       <c r="AE59" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AF59">
         <v>1</v>
@@ -11401,19 +11395,19 @@
         <v>1344</v>
       </c>
       <c r="AH59" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AI59">
         <v>2011622</v>
       </c>
       <c r="AL59" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AM59" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AN59" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AO59">
         <v>1</v>
@@ -11425,7 +11419,7 @@
         <v>59</v>
       </c>
       <c r="AR59" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AS59">
         <v>1</v>
@@ -11469,7 +11463,7 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -11544,7 +11538,7 @@
         <v>75412290</v>
       </c>
       <c r="AE60" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -11553,19 +11547,19 @@
         <v>649</v>
       </c>
       <c r="AH60" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AI60">
         <v>4473386</v>
       </c>
       <c r="AL60" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AM60" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AN60" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AO60">
         <v>1</v>
@@ -11577,7 +11571,7 @@
         <v>59</v>
       </c>
       <c r="AR60" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AS60">
         <v>1</v>
@@ -11621,7 +11615,7 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -11770,7 +11764,7 @@
         <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -11842,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="AE62" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -11851,19 +11845,19 @@
         <v>111</v>
       </c>
       <c r="AH62" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AI62">
         <v>21282000</v>
       </c>
       <c r="AL62" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AN62" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AO62">
         <v>0</v>
@@ -11875,7 +11869,7 @@
         <v>59</v>
       </c>
       <c r="AR62" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AS62">
         <v>1</v>
@@ -11919,7 +11913,7 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -11994,7 +11988,7 @@
         <v>74951756</v>
       </c>
       <c r="AE63" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AF63">
         <v>5</v>
@@ -12003,19 +11997,19 @@
         <v>1338</v>
       </c>
       <c r="AH63" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AI63">
         <v>1705266</v>
       </c>
       <c r="AL63" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AM63" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AN63" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AO63">
         <v>3</v>
@@ -12027,7 +12021,7 @@
         <v>59</v>
       </c>
       <c r="AR63" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AS63">
         <v>1</v>
@@ -12071,7 +12065,7 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -12146,7 +12140,7 @@
         <v>62167902</v>
       </c>
       <c r="AE64" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AF64">
         <v>4</v>
@@ -12155,19 +12149,19 @@
         <v>1148</v>
       </c>
       <c r="AH64" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AI64">
         <v>1174102</v>
       </c>
       <c r="AL64" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AM64" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AN64" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AO64">
         <v>1</v>
@@ -12179,7 +12173,7 @@
         <v>59</v>
       </c>
       <c r="AR64" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AS64">
         <v>1</v>
@@ -12223,7 +12217,7 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -12298,7 +12292,7 @@
         <v>67884515</v>
       </c>
       <c r="AE65" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -12307,7 +12301,7 @@
         <v>118</v>
       </c>
       <c r="AH65" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AI65">
         <v>668195</v>
@@ -12316,16 +12310,16 @@
         <v>668195</v>
       </c>
       <c r="AK65" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AL65" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AM65" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AN65" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AO65">
         <v>1</v>
@@ -12337,7 +12331,7 @@
         <v>59</v>
       </c>
       <c r="AR65" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AS65">
         <v>1</v>
@@ -12381,7 +12375,7 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -12453,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="AE66" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AF66">
         <v>13</v>
@@ -12462,16 +12456,16 @@
         <v>7788</v>
       </c>
       <c r="AH66" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AI66">
         <v>54929</v>
       </c>
       <c r="AL66" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AM66" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AN66" t="s">
         <v>66</v>
@@ -12486,7 +12480,7 @@
         <v>59</v>
       </c>
       <c r="AR66" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AS66">
         <v>1</v>
@@ -12530,7 +12524,7 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -12602,7 +12596,7 @@
         <v>1</v>
       </c>
       <c r="AE67" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -12611,7 +12605,7 @@
         <v>108</v>
       </c>
       <c r="AH67" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AI67">
         <v>5529155</v>
@@ -12620,16 +12614,16 @@
         <v>5529155</v>
       </c>
       <c r="AK67" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AL67" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AM67" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AN67" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AO67">
         <v>0</v>
@@ -12641,7 +12635,7 @@
         <v>59</v>
       </c>
       <c r="AR67" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AS67">
         <v>1</v>
@@ -12685,7 +12679,7 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -12760,7 +12754,7 @@
         <v>61827072</v>
       </c>
       <c r="AE68" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AF68">
         <v>1</v>
@@ -12769,7 +12763,7 @@
         <v>1031</v>
       </c>
       <c r="AH68" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AI68">
         <v>304151</v>
@@ -12778,16 +12772,16 @@
         <v>304151</v>
       </c>
       <c r="AK68" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AL68" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AM68" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AN68" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AO68">
         <v>1</v>
@@ -12799,7 +12793,7 @@
         <v>59</v>
       </c>
       <c r="AR68" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AS68">
         <v>0</v>
@@ -12843,7 +12837,7 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -12918,7 +12912,7 @@
         <v>73146898</v>
       </c>
       <c r="AE69" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AF69">
         <v>9</v>
@@ -12927,7 +12921,7 @@
         <v>3230</v>
       </c>
       <c r="AH69" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AI69">
         <v>3114742</v>
@@ -12936,13 +12930,13 @@
         <v>2443502</v>
       </c>
       <c r="AK69" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AL69" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AM69" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AN69" t="s">
         <v>116</v>
@@ -12957,7 +12951,7 @@
         <v>59</v>
       </c>
       <c r="AR69" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AS69">
         <v>0</v>
@@ -13001,7 +12995,7 @@
         <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -13073,7 +13067,7 @@
         <v>1</v>
       </c>
       <c r="AE70" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AF70">
         <v>1</v>
@@ -13082,7 +13076,7 @@
         <v>1110</v>
       </c>
       <c r="AH70" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AI70">
         <v>976627</v>
@@ -13091,16 +13085,16 @@
         <v>976627</v>
       </c>
       <c r="AK70" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AL70" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AM70" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AN70" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AO70">
         <v>1</v>
@@ -13112,7 +13106,7 @@
         <v>59</v>
       </c>
       <c r="AR70" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AS70">
         <v>0</v>
@@ -13156,7 +13150,7 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -13231,7 +13225,7 @@
         <v>76331050</v>
       </c>
       <c r="AE71" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -13240,19 +13234,19 @@
         <v>631</v>
       </c>
       <c r="AH71" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AI71">
         <v>1904792</v>
       </c>
       <c r="AL71" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AM71" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AN71" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AO71">
         <v>1</v>
@@ -13264,7 +13258,7 @@
         <v>59</v>
       </c>
       <c r="AR71" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AS71">
         <v>0</v>
@@ -13308,7 +13302,7 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -13463,7 +13457,7 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -13535,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="AE73" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -13544,19 +13538,19 @@
         <v>431</v>
       </c>
       <c r="AH73" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AI73">
         <v>21133416</v>
       </c>
       <c r="AL73" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AM73" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AN73" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AO73">
         <v>1</v>
@@ -13568,7 +13562,7 @@
         <v>59</v>
       </c>
       <c r="AR73" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AS73">
         <v>0</v>
@@ -13612,7 +13606,7 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -13687,7 +13681,7 @@
         <v>66485882</v>
       </c>
       <c r="AE74" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AF74">
         <v>4</v>
@@ -13696,7 +13690,7 @@
         <v>3431</v>
       </c>
       <c r="AH74" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AI74">
         <v>661775</v>
@@ -13705,16 +13699,16 @@
         <v>661775</v>
       </c>
       <c r="AK74" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AL74" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AM74" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AN74" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AO74">
         <v>2</v>
@@ -13726,7 +13720,7 @@
         <v>59</v>
       </c>
       <c r="AR74" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AS74">
         <v>0</v>
@@ -13770,7 +13764,7 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -13842,7 +13836,7 @@
         <v>1</v>
       </c>
       <c r="AE75" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -13851,7 +13845,7 @@
         <v>35</v>
       </c>
       <c r="AH75" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AI75">
         <v>2671622</v>
@@ -13860,16 +13854,16 @@
         <v>7670262</v>
       </c>
       <c r="AK75" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AL75" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AM75" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AN75" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AO75">
         <v>0</v>
@@ -13881,7 +13875,7 @@
         <v>59</v>
       </c>
       <c r="AR75" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AS75">
         <v>0</v>
@@ -13925,7 +13919,7 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -14000,7 +13994,7 @@
         <v>73748536</v>
       </c>
       <c r="AE76" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -14009,19 +14003,19 @@
         <v>222</v>
       </c>
       <c r="AH76" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AI76">
         <v>6686613</v>
       </c>
       <c r="AL76" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="AM76" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AN76" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AO76">
         <v>1</v>
@@ -14033,7 +14027,7 @@
         <v>59</v>
       </c>
       <c r="AR76" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AS76">
         <v>0</v>
@@ -14077,7 +14071,7 @@
         <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -14149,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="AE77" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AF77">
         <v>1</v>
@@ -14158,7 +14152,7 @@
         <v>393</v>
       </c>
       <c r="AH77" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="AI77">
         <v>10901568</v>
@@ -14167,16 +14161,16 @@
         <v>3241243</v>
       </c>
       <c r="AK77" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AL77" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AM77" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AN77" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AO77">
         <v>0</v>
@@ -14188,7 +14182,7 @@
         <v>59</v>
       </c>
       <c r="AR77" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AS77">
         <v>0</v>
@@ -14232,7 +14226,7 @@
         <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -14307,7 +14301,7 @@
         <v>73822678</v>
       </c>
       <c r="AE78" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AF78">
         <v>1</v>
@@ -14316,7 +14310,7 @@
         <v>132</v>
       </c>
       <c r="AH78" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AI78">
         <v>7628816</v>
@@ -14325,16 +14319,16 @@
         <v>7628816</v>
       </c>
       <c r="AK78" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AL78" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AM78" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AN78" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AO78">
         <v>1</v>
@@ -14346,7 +14340,7 @@
         <v>59</v>
       </c>
       <c r="AR78" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AS78">
         <v>0</v>
@@ -14390,7 +14384,7 @@
         <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -14465,7 +14459,7 @@
         <v>66880199</v>
       </c>
       <c r="AE79" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -14474,7 +14468,7 @@
         <v>1556</v>
       </c>
       <c r="AH79" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AI79">
         <v>7432829</v>
@@ -14483,16 +14477,16 @@
         <v>7432829</v>
       </c>
       <c r="AK79" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="AL79" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AM79" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AN79" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AO79">
         <v>1</v>
@@ -14504,7 +14498,7 @@
         <v>59</v>
       </c>
       <c r="AR79" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AS79">
         <v>0</v>
@@ -14548,7 +14542,7 @@
         <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -14620,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="AE80" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -14629,16 +14623,16 @@
         <v>36</v>
       </c>
       <c r="AH80" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="AI80">
         <v>230055</v>
       </c>
       <c r="AL80" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AM80" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AN80" t="s">
         <v>116</v>
@@ -14653,7 +14647,7 @@
         <v>59</v>
       </c>
       <c r="AR80" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AS80">
         <v>0</v>
@@ -14697,7 +14691,7 @@
         <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -14769,7 +14763,7 @@
         <v>1</v>
       </c>
       <c r="AE81" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -14778,19 +14772,19 @@
         <v>1279</v>
       </c>
       <c r="AH81" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AI81">
         <v>322791</v>
       </c>
       <c r="AL81" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="AM81" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AN81" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AO81">
         <v>1</v>
@@ -14802,7 +14796,7 @@
         <v>59</v>
       </c>
       <c r="AR81" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="AS81">
         <v>0</v>
@@ -14846,7 +14840,7 @@
         <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -14921,7 +14915,7 @@
         <v>60913464</v>
       </c>
       <c r="AE82" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AF82">
         <v>27</v>
@@ -14930,19 +14924,19 @@
         <v>9565</v>
       </c>
       <c r="AH82" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AI82">
         <v>12453016</v>
       </c>
       <c r="AL82" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AM82" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AN82" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AO82">
         <v>1</v>
@@ -14954,7 +14948,7 @@
         <v>59</v>
       </c>
       <c r="AR82" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AS82">
         <v>0</v>
@@ -14998,7 +14992,7 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -15070,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="AE83" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AF83">
         <v>2</v>
@@ -15079,19 +15073,19 @@
         <v>1617</v>
       </c>
       <c r="AH83" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="AI83">
         <v>16232640</v>
       </c>
       <c r="AL83" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AM83" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="AN83" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="AO83">
         <v>2</v>
@@ -15103,7 +15097,7 @@
         <v>59</v>
       </c>
       <c r="AR83" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="AS83">
         <v>0</v>
@@ -15147,7 +15141,7 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -15222,7 +15216,7 @@
         <v>68413598</v>
       </c>
       <c r="AE84" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -15231,19 +15225,19 @@
         <v>2712</v>
       </c>
       <c r="AH84" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="AI84">
         <v>16364569</v>
       </c>
       <c r="AL84" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="AM84" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="AN84" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="AO84">
         <v>1</v>
@@ -15255,7 +15249,7 @@
         <v>59</v>
       </c>
       <c r="AR84" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AS84">
         <v>0</v>
@@ -15299,7 +15293,7 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -15374,7 +15368,7 @@
         <v>73146898</v>
       </c>
       <c r="AE85" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AF85">
         <v>9</v>
@@ -15383,7 +15377,7 @@
         <v>3230</v>
       </c>
       <c r="AH85" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AI85">
         <v>3114742</v>
@@ -15392,13 +15386,13 @@
         <v>2443502</v>
       </c>
       <c r="AK85" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AL85" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AM85" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AN85" t="s">
         <v>116</v>
@@ -15413,7 +15407,7 @@
         <v>59</v>
       </c>
       <c r="AR85" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AS85">
         <v>0</v>
@@ -15457,7 +15451,7 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -15529,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="AE86" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AF86">
         <v>5</v>
@@ -15538,19 +15532,19 @@
         <v>1358</v>
       </c>
       <c r="AH86" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AI86">
         <v>19378552</v>
       </c>
       <c r="AL86" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AM86" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AN86" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AO86">
         <v>1</v>
@@ -15562,7 +15556,7 @@
         <v>59</v>
       </c>
       <c r="AR86" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AS86">
         <v>0</v>
@@ -15606,7 +15600,7 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -15681,7 +15675,7 @@
         <v>63648621</v>
       </c>
       <c r="AE87" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AF87">
         <v>2</v>
@@ -15690,7 +15684,7 @@
         <v>2057</v>
       </c>
       <c r="AH87" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AI87">
         <v>1578513</v>
@@ -15699,16 +15693,16 @@
         <v>1578513</v>
       </c>
       <c r="AK87" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="AL87" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="AM87" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="AN87" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="AO87">
         <v>1</v>
@@ -15720,7 +15714,7 @@
         <v>59</v>
       </c>
       <c r="AR87" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="AS87">
         <v>0</v>
@@ -15764,7 +15758,7 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -15836,7 +15830,7 @@
         <v>1</v>
       </c>
       <c r="AE88" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AF88">
         <v>-1</v>
@@ -15845,19 +15839,19 @@
         <v>1159</v>
       </c>
       <c r="AH88" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AI88">
         <v>4062803</v>
       </c>
       <c r="AL88" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AM88" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AN88" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AO88">
         <v>1</v>
@@ -15869,7 +15863,7 @@
         <v>59</v>
       </c>
       <c r="AR88" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AS88">
         <v>0</v>
@@ -15913,7 +15907,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -15988,7 +15982,7 @@
         <v>73329852</v>
       </c>
       <c r="AE89" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -15997,19 +15991,19 @@
         <v>161</v>
       </c>
       <c r="AH89" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="AI89">
         <v>6466023</v>
       </c>
       <c r="AL89" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="AM89" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="AN89" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="AO89">
         <v>1</v>
@@ -16021,7 +16015,7 @@
         <v>59</v>
       </c>
       <c r="AR89" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AS89">
         <v>0</v>
@@ -16065,7 +16059,7 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -16137,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="AE90" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="AF90">
         <v>2</v>
@@ -16146,7 +16140,7 @@
         <v>9495</v>
       </c>
       <c r="AH90" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AI90">
         <v>14657724</v>
@@ -16155,16 +16149,16 @@
         <v>14657724</v>
       </c>
       <c r="AK90" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="AL90" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AM90" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="AN90" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AO90">
         <v>2</v>
@@ -16176,7 +16170,7 @@
         <v>59</v>
       </c>
       <c r="AR90" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="AS90">
         <v>0</v>
@@ -16220,7 +16214,7 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -16295,7 +16289,7 @@
         <v>61919791</v>
       </c>
       <c r="AE91" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="AF91">
         <v>33</v>
@@ -16304,19 +16298,19 @@
         <v>83405</v>
       </c>
       <c r="AH91" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AI91">
         <v>10438436</v>
       </c>
       <c r="AL91" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="AM91" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AN91" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AO91">
         <v>9</v>
@@ -16328,7 +16322,7 @@
         <v>59</v>
       </c>
       <c r="AR91" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="AS91">
         <v>0</v>
@@ -16372,7 +16366,7 @@
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -16444,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="AE92" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -16453,19 +16447,19 @@
         <v>137</v>
       </c>
       <c r="AH92" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="AI92">
         <v>8232685</v>
       </c>
       <c r="AL92" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="AM92" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="AN92" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="AO92">
         <v>0</v>
@@ -16477,7 +16471,7 @@
         <v>59</v>
       </c>
       <c r="AR92" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AS92">
         <v>0</v>
@@ -16521,7 +16515,7 @@
         <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -16593,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="AE93" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AF93">
         <v>1</v>
@@ -16602,19 +16596,19 @@
         <v>116</v>
       </c>
       <c r="AH93" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="AI93">
         <v>21523707</v>
       </c>
       <c r="AL93" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="AM93" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="AN93" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="AO93">
         <v>1</v>
@@ -16626,7 +16620,7 @@
         <v>59</v>
       </c>
       <c r="AR93" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AS93">
         <v>0</v>
@@ -16670,7 +16664,7 @@
         <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -16745,7 +16739,7 @@
         <v>73146898</v>
       </c>
       <c r="AE94" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AF94">
         <v>9</v>
@@ -16754,7 +16748,7 @@
         <v>3230</v>
       </c>
       <c r="AH94" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AI94">
         <v>3114742</v>
@@ -16763,13 +16757,13 @@
         <v>2443502</v>
       </c>
       <c r="AK94" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AL94" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AM94" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AN94" t="s">
         <v>116</v>
@@ -16784,7 +16778,7 @@
         <v>59</v>
       </c>
       <c r="AR94" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AS94">
         <v>0</v>
@@ -16828,7 +16822,7 @@
         <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -16900,7 +16894,7 @@
         <v>1</v>
       </c>
       <c r="AE95" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AF95">
         <v>1</v>
@@ -16909,19 +16903,19 @@
         <v>2731</v>
       </c>
       <c r="AH95" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AI95">
         <v>10355068</v>
       </c>
       <c r="AL95" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AM95" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AN95" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AO95">
         <v>1</v>
@@ -16933,7 +16927,7 @@
         <v>59</v>
       </c>
       <c r="AR95" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AS95">
         <v>0</v>
@@ -16977,7 +16971,7 @@
         <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -17049,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="AE96" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -17058,7 +17052,7 @@
         <v>73</v>
       </c>
       <c r="AH96" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="AI96">
         <v>17936292</v>
@@ -17067,16 +17061,16 @@
         <v>17936292</v>
       </c>
       <c r="AK96" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="AL96" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="AM96" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="AN96" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="AO96">
         <v>0</v>
@@ -17088,7 +17082,7 @@
         <v>59</v>
       </c>
       <c r="AR96" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="AS96">
         <v>0</v>
@@ -17132,7 +17126,7 @@
         <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -17204,7 +17198,7 @@
         <v>1</v>
       </c>
       <c r="AE97" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="AF97">
         <v>2</v>
@@ -17213,19 +17207,19 @@
         <v>214</v>
       </c>
       <c r="AH97" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="AI97">
         <v>4227700</v>
       </c>
       <c r="AL97" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="AM97" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="AN97" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="AO97">
         <v>0</v>
@@ -17237,7 +17231,7 @@
         <v>59</v>
       </c>
       <c r="AR97" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AS97">
         <v>0</v>
@@ -17281,7 +17275,7 @@
         <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -17356,7 +17350,7 @@
         <v>66922092</v>
       </c>
       <c r="AE98" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="AF98">
         <v>11</v>
@@ -17365,19 +17359,19 @@
         <v>19008</v>
       </c>
       <c r="AH98" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="AI98">
         <v>9714034</v>
       </c>
       <c r="AL98" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="AM98" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="AN98" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AO98">
         <v>1</v>
@@ -17389,7 +17383,7 @@
         <v>59</v>
       </c>
       <c r="AR98" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="AS98">
         <v>0</v>
@@ -17433,7 +17427,7 @@
         <v>52</v>
       </c>
       <c r="E99" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -17505,7 +17499,7 @@
         <v>1</v>
       </c>
       <c r="AE99" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="AF99">
         <v>3</v>
@@ -17514,7 +17508,7 @@
         <v>673</v>
       </c>
       <c r="AH99" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="AI99">
         <v>9110699</v>
@@ -17523,16 +17517,16 @@
         <v>1000551</v>
       </c>
       <c r="AK99" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="AL99" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="AM99" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="AN99" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="AO99">
         <v>1</v>
@@ -17544,7 +17538,7 @@
         <v>59</v>
       </c>
       <c r="AR99" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="AS99">
         <v>0</v>
@@ -17588,7 +17582,7 @@
         <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -17660,7 +17654,7 @@
         <v>1</v>
       </c>
       <c r="AE100" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -17669,7 +17663,7 @@
         <v>26</v>
       </c>
       <c r="AH100" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="AI100">
         <v>19739129</v>
@@ -17678,16 +17672,16 @@
         <v>19739129</v>
       </c>
       <c r="AK100" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="AL100" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="AM100" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="AN100" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AO100">
         <v>0</v>
@@ -17699,7 +17693,7 @@
         <v>59</v>
       </c>
       <c r="AR100" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="AS100">
         <v>0</v>
@@ -17743,7 +17737,7 @@
         <v>52</v>
       </c>
       <c r="E101" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -17815,7 +17809,7 @@
         <v>1</v>
       </c>
       <c r="AE101" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AF101">
         <v>-1</v>
@@ -17824,19 +17818,19 @@
         <v>1159</v>
       </c>
       <c r="AH101" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AI101">
         <v>4062803</v>
       </c>
       <c r="AL101" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AM101" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AN101" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AO101">
         <v>1</v>
@@ -17848,7 +17842,7 @@
         <v>59</v>
       </c>
       <c r="AR101" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AS101">
         <v>0</v>
